--- a/map_data/voedselbos_species.xlsx
+++ b/map_data/voedselbos_species.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a007b750890572f5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\damien\bosmapper\map_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{2619BC9C-F5A2-45E9-B491-9552F6D2DAB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F6C48B7-DD77-44BD-B1D3-E74217C3F630}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50D59B-DBFA-4937-9187-23E6001C2EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18285" yWindow="3255" windowWidth="14400" windowHeight="8355" xr2:uid="{41C94313-E097-42C3-9518-1AB02B51329D}"/>
+    <workbookView xWindow="29970" yWindow="-615" windowWidth="26595" windowHeight="11985" xr2:uid="{41C94313-E097-42C3-9518-1AB02B51329D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="424">
   <si>
     <t>Hovenia dulcis</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Japanse krentenboom of rozijnenboom</t>
   </si>
   <si>
-    <t>Al aanwezig</t>
-  </si>
-  <si>
     <t>Pyrus communis</t>
   </si>
   <si>
@@ -87,18 +84,12 @@
     <t>Daglelie</t>
   </si>
   <si>
-    <t>Eigen kweek, anders tuincentrum.nl/tuinadvies</t>
-  </si>
-  <si>
     <t>Cynara scolymus</t>
   </si>
   <si>
     <t>Artisjok</t>
   </si>
   <si>
-    <t>Eigen kweek, makkelijk te vermeerderen</t>
-  </si>
-  <si>
     <t>Cynara cardunculus</t>
   </si>
   <si>
@@ -114,12 +105,6 @@
     <t>Krentenboompje</t>
   </si>
   <si>
-    <t>Arborealis</t>
-  </si>
-  <si>
-    <t>Van elk ras 1</t>
-  </si>
-  <si>
     <t>Amelanchier laevis</t>
   </si>
   <si>
@@ -141,9 +126,6 @@
     <t>zwarte appelbes</t>
   </si>
   <si>
-    <t>Viking is het standaard productieras,staat waars al op de voedseltuin. Neem daarom 4 van elk van de genoemde rassen, en vul rest aan met planten van voedseltuin</t>
-  </si>
-  <si>
     <t>Castanea sativa</t>
   </si>
   <si>
@@ -153,9 +135,6 @@
     <t>Kastanjeboom</t>
   </si>
   <si>
-    <t>Arborealis, fruitbomen.net</t>
-  </si>
-  <si>
     <t>Chaenomeles cathayensis</t>
   </si>
   <si>
@@ -177,9 +156,6 @@
     <t>Brown Turkey</t>
   </si>
   <si>
-    <t>1 besteld bij Arborealis, rest eigen kweek</t>
-  </si>
-  <si>
     <t>Halesia carolina</t>
   </si>
   <si>
@@ -204,18 +180,12 @@
     <t>Fluweelboom, klein</t>
   </si>
   <si>
-    <t>2 grow low, 3 normaal</t>
-  </si>
-  <si>
     <t>Rhus glabra</t>
   </si>
   <si>
     <t>Fluweelboom</t>
   </si>
   <si>
-    <t>1x 'Laciniata'</t>
-  </si>
-  <si>
     <t>Ribes divaricatum</t>
   </si>
   <si>
@@ -231,9 +201,6 @@
     <t>Zwarte bes</t>
   </si>
   <si>
-    <t>3 Ojeblanc, 2 Black down</t>
-  </si>
-  <si>
     <t>Ribes rubrum</t>
   </si>
   <si>
@@ -243,9 +210,6 @@
     <t>Rode bes</t>
   </si>
   <si>
-    <t>Roze ras, voor de collectie</t>
-  </si>
-  <si>
     <t>Rubus 'Loganberry'</t>
   </si>
   <si>
@@ -267,9 +231,6 @@
     <t>Vlier</t>
   </si>
   <si>
-    <t>Van alle vier de vruchtselecties 1</t>
-  </si>
-  <si>
     <t>Shepherdia argentea</t>
   </si>
   <si>
@@ -291,9 +252,6 @@
     <t>Bursinka</t>
   </si>
   <si>
-    <t>Kruising tussen appelbes en lijsterbes met eetbare vruchten</t>
-  </si>
-  <si>
     <t>Staphylea pinnata</t>
   </si>
   <si>
@@ -306,9 +264,6 @@
     <t>Japans peper boompje</t>
   </si>
   <si>
-    <t>Esveld, eggert, bulk</t>
-  </si>
-  <si>
     <t>Zanthoxylum sp.</t>
   </si>
   <si>
@@ -318,9 +273,6 @@
     <t>Peper boompje</t>
   </si>
   <si>
-    <t>Een andere soort dan piperetum of simulans, maakt niet zoveel uit welke</t>
-  </si>
-  <si>
     <t>Mahonia aquilegium</t>
   </si>
   <si>
@@ -384,9 +336,6 @@
     <t>Blauwe boon/Augurkenstruik</t>
   </si>
   <si>
-    <t>etifolia</t>
-  </si>
-  <si>
     <t>Diospyros lotus</t>
   </si>
   <si>
@@ -402,9 +351,6 @@
     <t>Meidoorn</t>
   </si>
   <si>
-    <t>pavia.be</t>
-  </si>
-  <si>
     <t>Crataegus opaca</t>
   </si>
   <si>
@@ -447,9 +393,6 @@
     <t>Mispel</t>
   </si>
   <si>
-    <t>arborealis</t>
-  </si>
-  <si>
     <t>Elaeagnus angustifolia</t>
   </si>
   <si>
@@ -465,9 +408,6 @@
     <t>Maxima</t>
   </si>
   <si>
-    <t>Wijker</t>
-  </si>
-  <si>
     <t>Eleagnus umbellata</t>
   </si>
   <si>
@@ -486,12 +426,6 @@
     <t>Zoete kers</t>
   </si>
   <si>
-    <t>fruitbomen.net</t>
-  </si>
-  <si>
-    <t>Onderstam Limburgse boskriek / F12/1</t>
-  </si>
-  <si>
     <t>Prunus domestica</t>
   </si>
   <si>
@@ -510,18 +444,12 @@
     <t>Aardbeiboom</t>
   </si>
   <si>
-    <t>Neem grootste varieteit, vraag even na bij fruitbomen hoe groot ie wordt</t>
-  </si>
-  <si>
     <t>Eriobotrya japonica </t>
   </si>
   <si>
     <t>Loquat of Japanse Wolmispel</t>
   </si>
   <si>
-    <t>Fruitbomen.net</t>
-  </si>
-  <si>
     <t>Pseudocydonia sinensis </t>
   </si>
   <si>
@@ -534,9 +462,6 @@
     <t>Lang, zaailing</t>
   </si>
   <si>
-    <t>1 zaailing al aanwezig, lang nog te kopen</t>
-  </si>
-  <si>
     <t>Prunus cerasius</t>
   </si>
   <si>
@@ -555,12 +480,6 @@
     <t>Chinese moerbei</t>
   </si>
   <si>
-    <t>De moerbeiboom</t>
-  </si>
-  <si>
-    <t>Een mannetje en een vrouwtje</t>
-  </si>
-  <si>
     <t>Diospyros virginiana</t>
   </si>
   <si>
@@ -615,9 +534,6 @@
     <t>Peervormige lijsterbes</t>
   </si>
   <si>
-    <t>De Moerbeiboom</t>
-  </si>
-  <si>
     <t>Carya illinoinensis</t>
   </si>
   <si>
@@ -627,9 +543,6 @@
     <t>Pecan</t>
   </si>
   <si>
-    <t>De Smallekamp</t>
-  </si>
-  <si>
     <t>Cornus mas</t>
   </si>
   <si>
@@ -639,21 +552,12 @@
     <t>Gele kornoelje</t>
   </si>
   <si>
-    <t>http://www.shop.zahradnictvolimbach.sk/en/delivery-terms-and-conditions</t>
-  </si>
-  <si>
-    <t>of http://cornusmas.eu</t>
-  </si>
-  <si>
     <t>Crataegus pennsylveniaca</t>
   </si>
   <si>
     <t>niet meer in collectie</t>
   </si>
   <si>
-    <t>De zoetewei</t>
-  </si>
-  <si>
     <t>Quercus rotundifolia</t>
   </si>
   <si>
@@ -663,9 +567,6 @@
     <t/>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Crataegus calpodendron</t>
   </si>
   <si>
@@ -678,12 +579,6 @@
     <t>Parasolden</t>
   </si>
   <si>
-    <t>Eggert.de</t>
-  </si>
-  <si>
-    <t>Bulk?</t>
-  </si>
-  <si>
     <t>Vaccinium myrtillus</t>
   </si>
   <si>
@@ -696,12 +591,6 @@
     <t>Berendruif</t>
   </si>
   <si>
-    <t>Boskoops</t>
-  </si>
-  <si>
-    <t>Ordernummer: ORD10173</t>
-  </si>
-  <si>
     <t>Cephalotaxus harringtonii</t>
   </si>
   <si>
@@ -726,9 +615,6 @@
     <t>Mystery fire</t>
   </si>
   <si>
-    <t>https://www.tuinplant.nl/zuurbes-berberis-lologensis-mystery-fire </t>
-  </si>
-  <si>
     <t>Citrus Owari Satsuma</t>
   </si>
   <si>
@@ -738,18 +624,12 @@
     <t>Satsuma mandarijn</t>
   </si>
   <si>
-    <t>Exoticfruitplants.eu</t>
-  </si>
-  <si>
     <t>Feijoa sellowiana / Acca sellowiana</t>
   </si>
   <si>
     <t>Unique niet leverbaar, Triumph wel , Kubanek ook niet... Sicilia &amp; Mammoth bij besteld</t>
   </si>
   <si>
-    <t>Elk ras 1</t>
-  </si>
-  <si>
     <t>Fortunella japonica</t>
   </si>
   <si>
@@ -765,21 +645,12 @@
     <t>Nagami kumquat</t>
   </si>
   <si>
-    <t>1+ wijker</t>
-  </si>
-  <si>
     <t>Gleditsia triacanthos</t>
   </si>
   <si>
     <t>Valse christusdoorn</t>
   </si>
   <si>
-    <t>https://www.olaf-nijenkamp.nl/nl/zoeken?Search=Gleditsia+triacanthos</t>
-  </si>
-  <si>
-    <t>10 als wijkers niet voorradig, 2 definitief</t>
-  </si>
-  <si>
     <t>Lycium barbarum</t>
   </si>
   <si>
@@ -789,9 +660,6 @@
     <t>Gojibes</t>
   </si>
   <si>
-    <t>Proeftuin.eu</t>
-  </si>
-  <si>
     <t>Ribes odoratum</t>
   </si>
   <si>
@@ -801,9 +669,6 @@
     <t>Buffelkrent</t>
   </si>
   <si>
-    <t>Een mix van alle 3 de rassen</t>
-  </si>
-  <si>
     <t>Rubus 'Tayberry'</t>
   </si>
   <si>
@@ -813,12 +678,6 @@
     <t>Taybes</t>
   </si>
   <si>
-    <t>proeftuin.eu</t>
-  </si>
-  <si>
-    <t>Buckingham is een doornloze variant</t>
-  </si>
-  <si>
     <t>Chaenomeles japonica</t>
   </si>
   <si>
@@ -834,30 +693,18 @@
     <t>Amerikaanse pimpernoot</t>
   </si>
   <si>
-    <t>Rein &amp; Mark Bulk</t>
-  </si>
-  <si>
-    <t>A Touch of green</t>
-  </si>
-  <si>
     <t>Gevuina avellana</t>
   </si>
   <si>
     <t>Chileense hazelaar</t>
   </si>
   <si>
-    <t>h. kolster</t>
-  </si>
-  <si>
     <t>Betula pendula</t>
   </si>
   <si>
     <t>Ruwe berk</t>
   </si>
   <si>
-    <t>Ten Hoven</t>
-  </si>
-  <si>
     <t>Caragana arborescens</t>
   </si>
   <si>
@@ -873,27 +720,18 @@
     <t>Duindoorn</t>
   </si>
   <si>
-    <t>Als via kordes niet lukt</t>
-  </si>
-  <si>
     <t>Rosa rugosa</t>
   </si>
   <si>
     <t>Alba</t>
   </si>
   <si>
-    <t>Toch niet besteld</t>
-  </si>
-  <si>
     <t>Tilia cordata </t>
   </si>
   <si>
     <t>Winterlinde, geknot</t>
   </si>
   <si>
-    <t>Windhaag</t>
-  </si>
-  <si>
     <t>Alnus incana</t>
   </si>
   <si>
@@ -912,12 +750,6 @@
     <t>Berberis darwinii</t>
   </si>
   <si>
-    <t>Tuinadvies.nl</t>
-  </si>
-  <si>
-    <t>Gratis verzendkosten boven de 35 eu</t>
-  </si>
-  <si>
     <t>Mahonia bealei</t>
   </si>
   <si>
@@ -933,39 +765,24 @@
     <t>Zilverbes</t>
   </si>
   <si>
-    <t>Neem 4 normale en 4 Gilt Edge, die laatste schijnt goed te dragen en te bestuiven</t>
-  </si>
-  <si>
     <t>Chaenomeles superba</t>
   </si>
   <si>
     <t>Crimson &amp; Gold</t>
   </si>
   <si>
-    <t>Ik zoek eigenlijk het ras 'Fusion' maar die kan ik nergens vinden</t>
-  </si>
-  <si>
     <t>Araucaria araucana</t>
   </si>
   <si>
     <t>Slangenden</t>
   </si>
   <si>
-    <t>Tuincentrum.nl</t>
-  </si>
-  <si>
-    <t>Hier t goedkoopste, ik zou de maat nemen 40-50 cm (30 euro), anders duurt t weer 3 jaar langer</t>
-  </si>
-  <si>
     <t>Broussonetia papyrifera</t>
   </si>
   <si>
     <t>Papiermoerbei</t>
   </si>
   <si>
-    <t>Gratis verzendkosten boven de 50 eu</t>
-  </si>
-  <si>
     <t>Corylus avellana</t>
   </si>
   <si>
@@ -975,22 +792,13 @@
     <t>Hazelaar</t>
   </si>
   <si>
-    <t>Via Marly (heeft er eentje staan), of Martin Crawford</t>
-  </si>
-  <si>
     <t>Cephalotaxus fortunei</t>
   </si>
   <si>
-    <t>Nog geen kweker voor gevonden, kunnen we ook zelf opkweken (ik heb zaad uit Trompenburg)</t>
-  </si>
-  <si>
     <t>Phyllostachis sp.</t>
   </si>
   <si>
     <t>Bamboe</t>
-  </si>
-  <si>
-    <t>Zoek 4 soorten eetbare bamboe uit, kwekers moeten nog gevonden worden</t>
   </si>
   <si>
     <t>Pluot</t>
@@ -1276,9 +1084,6 @@
     <t>Z. simulans</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
@@ -1499,12 +1304,6 @@
   </si>
   <si>
     <t>races</t>
-  </si>
-  <si>
-    <t>phase</t>
-  </si>
-  <si>
-    <t>nursery</t>
   </si>
 </sst>
 </file>
@@ -1864,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D093D-8C82-4BD1-88A3-14D709597181}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,73 +1676,55 @@
     <col min="3" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="150.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="87.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="C1" t="s">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="E1" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="F1" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="G1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1951,28 +1732,19 @@
       <c r="F3">
         <v>2.5</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1980,28 +1752,22 @@
       <c r="F4">
         <v>3.5</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2009,28 +1775,19 @@
       <c r="F5">
         <v>3.5</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2038,22 +1795,16 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -2061,28 +1812,19 @@
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>306</v>
-      </c>
-      <c r="J7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>468</v>
+        <v>403</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -2090,28 +1832,19 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E9">
         <v>0.25</v>
@@ -2119,39 +1852,30 @@
       <c r="F9">
         <v>0.25</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="D10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2159,28 +1883,19 @@
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E12">
         <v>2.5</v>
@@ -2188,25 +1903,16 @@
       <c r="F12">
         <v>2.5</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>293</v>
-      </c>
-      <c r="J12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>2.5</v>
@@ -2214,25 +1920,19 @@
       <c r="F13">
         <v>2.5</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2240,25 +1940,19 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>227</v>
-      </c>
-      <c r="I14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -2266,22 +1960,16 @@
       <c r="F15">
         <v>6</v>
       </c>
-      <c r="G15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>269</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="E16">
         <v>12</v>
@@ -2289,36 +1977,27 @@
       <c r="F16">
         <v>8</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>306</v>
-      </c>
-      <c r="J16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
-        <v>469</v>
+        <v>404</v>
       </c>
       <c r="D17" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>483</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -2326,22 +2005,16 @@
       <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="E19">
         <v>30</v>
@@ -2349,25 +2022,19 @@
       <c r="F19">
         <v>15</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>196</v>
-      </c>
-      <c r="I19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -2375,25 +2042,19 @@
       <c r="F20">
         <v>20</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -2401,22 +2062,16 @@
       <c r="F21">
         <v>7</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>482</v>
+        <v>417</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -2424,25 +2079,19 @@
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>224</v>
-      </c>
-      <c r="I22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -2450,25 +2099,19 @@
       <c r="F23">
         <v>3</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2476,28 +2119,22 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>263</v>
-      </c>
-      <c r="I24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>451</v>
+        <v>386</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2505,28 +2142,22 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="D26" t="s">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="E26">
         <v>1.5</v>
@@ -2534,31 +2165,22 @@
       <c r="F26">
         <v>1.5</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>302</v>
-      </c>
-      <c r="I26" t="s">
-        <v>293</v>
-      </c>
-      <c r="J26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2566,28 +2188,22 @@
       <c r="F27">
         <v>4</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>233</v>
-      </c>
-      <c r="I27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>439</v>
+        <v>374</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -2595,25 +2211,19 @@
       <c r="F28">
         <v>6</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>343</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -2621,31 +2231,22 @@
       <c r="F29">
         <v>5</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>200</v>
-      </c>
-      <c r="I29" t="s">
-        <v>202</v>
-      </c>
-      <c r="J29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="C30" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="D30" t="s">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -2653,28 +2254,22 @@
       <c r="F30">
         <v>6</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>312</v>
-      </c>
-      <c r="I30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -2682,25 +2277,19 @@
       <c r="F31">
         <v>5</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2708,25 +2297,19 @@
       <c r="F32">
         <v>6</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>337</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -2734,25 +2317,19 @@
       <c r="F33">
         <v>5</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -2760,31 +2337,22 @@
       <c r="F34">
         <v>5</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -2792,25 +2360,19 @@
       <c r="F35">
         <v>5</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="E36">
         <v>9</v>
@@ -2818,31 +2380,22 @@
       <c r="F36">
         <v>6</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -2850,31 +2403,22 @@
       <c r="F37">
         <v>5</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" t="s">
-        <v>206</v>
-      </c>
-      <c r="J37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -2882,25 +2426,19 @@
       <c r="F38">
         <v>7</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -2908,25 +2446,19 @@
       <c r="F39">
         <v>5</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -2934,22 +2466,16 @@
       <c r="F40">
         <v>6</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>479</v>
+        <v>414</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -2957,28 +2483,19 @@
       <c r="F41">
         <v>6</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>172</v>
-      </c>
-      <c r="I41" t="s">
-        <v>174</v>
-      </c>
-      <c r="J41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>480</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2986,22 +2503,16 @@
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>481</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3009,22 +2520,16 @@
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -3032,36 +2537,24 @@
       <c r="F44">
         <v>3</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="I44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
-      </c>
-      <c r="I45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -3069,22 +2562,16 @@
       <c r="F46">
         <v>6</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="E47">
         <v>15</v>
@@ -3092,25 +2579,19 @@
       <c r="F47">
         <v>10</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>177</v>
-      </c>
-      <c r="I47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="E48">
         <v>15</v>
@@ -3118,25 +2599,19 @@
       <c r="F48">
         <v>8</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>180</v>
-      </c>
-      <c r="I48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3144,22 +2619,16 @@
       <c r="F49">
         <v>3</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>362</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="C50" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -3167,31 +2636,22 @@
       <c r="F50">
         <v>3</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>298</v>
-      </c>
-      <c r="I50" t="s">
-        <v>293</v>
-      </c>
-      <c r="J50" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3199,48 +2659,36 @@
       <c r="F51">
         <v>3</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>133</v>
-      </c>
-      <c r="I51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>478</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
-      <c r="G52" t="s">
-        <v>144</v>
-      </c>
-      <c r="I52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -3248,22 +2696,16 @@
       <c r="F53">
         <v>5</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -3271,28 +2713,19 @@
       <c r="F54">
         <v>3</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>237</v>
-      </c>
-      <c r="I54" t="s">
-        <v>235</v>
-      </c>
-      <c r="J54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>423</v>
+        <v>358</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -3300,28 +2733,19 @@
       <c r="F55">
         <v>6</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E56">
         <v>2.5</v>
@@ -3329,19 +2753,16 @@
       <c r="F56">
         <v>2</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="B57" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="E57">
         <v>2.5</v>
@@ -3349,42 +2770,30 @@
       <c r="F57">
         <v>2</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>242</v>
-      </c>
-      <c r="I57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
-        <v>291</v>
-      </c>
-      <c r="G58" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>477</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E59">
         <v>1.5</v>
@@ -3392,22 +2801,16 @@
       <c r="F59">
         <v>1.5</v>
       </c>
-      <c r="G59">
-        <v>2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -3415,28 +2818,19 @@
       <c r="F60">
         <v>10</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>267</v>
-      </c>
-      <c r="J60" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -3444,25 +2838,16 @@
       <c r="F61">
         <v>10</v>
       </c>
-      <c r="G61" t="s">
-        <v>244</v>
-      </c>
-      <c r="I61" t="s">
-        <v>247</v>
-      </c>
-      <c r="J61" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E62">
         <v>1.5</v>
@@ -3470,22 +2855,16 @@
       <c r="F62">
         <v>1.5</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -3493,22 +2872,16 @@
       <c r="F63">
         <v>5</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
         <v>16</v>
-      </c>
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" t="s">
-        <v>17</v>
       </c>
       <c r="E64">
         <v>0.5</v>
@@ -3516,22 +2889,16 @@
       <c r="F64">
         <v>0.5</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="B65" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="C65" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -3540,21 +2907,12 @@
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>144</v>
-      </c>
-      <c r="H65" t="s">
-        <v>278</v>
-      </c>
-      <c r="I65" t="s">
-        <v>274</v>
-      </c>
-      <c r="J65" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -3568,22 +2926,16 @@
       <c r="F66">
         <v>7</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="E67">
         <v>2.5</v>
@@ -3591,25 +2943,19 @@
       <c r="F67">
         <v>2.5</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>250</v>
-      </c>
-      <c r="I67" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -3617,25 +2963,19 @@
       <c r="F68">
         <v>7</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>97</v>
-      </c>
-      <c r="I68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C69" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -3643,25 +2983,16 @@
       <c r="F69">
         <v>7</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>293</v>
-      </c>
-      <c r="J69" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -3669,25 +3000,19 @@
       <c r="F70">
         <v>4</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>136</v>
-      </c>
-      <c r="I70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E71">
         <v>15</v>
@@ -3695,25 +3020,19 @@
       <c r="F71">
         <v>12</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>183</v>
-      </c>
-      <c r="I71" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E72">
         <v>8</v>
@@ -3721,25 +3040,19 @@
       <c r="F72">
         <v>12</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>189</v>
-      </c>
-      <c r="I72" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="E73">
         <v>15</v>
@@ -3747,39 +3060,33 @@
       <c r="F73">
         <v>10</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>186</v>
-      </c>
-      <c r="I73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>441</v>
+        <v>376</v>
       </c>
       <c r="B74" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="C74" t="s">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="D74" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="B75" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="C75" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -3787,22 +3094,16 @@
       <c r="F75">
         <v>6</v>
       </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="J75" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E76">
         <v>20</v>
@@ -3810,28 +3111,22 @@
       <c r="F76">
         <v>15</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>52</v>
-      </c>
-      <c r="I76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="D77" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="E77">
         <v>20</v>
@@ -3839,48 +3134,36 @@
       <c r="F77">
         <v>15</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>213</v>
-      </c>
-      <c r="I77" t="s">
-        <v>215</v>
-      </c>
-      <c r="J77" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="C78" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="D78" t="s">
-        <v>320</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D79" t="s">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="E79">
         <v>6</v>
@@ -3888,28 +3171,19 @@
       <c r="F79">
         <v>4</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>149</v>
-      </c>
-      <c r="I79" t="s">
-        <v>151</v>
-      </c>
-      <c r="J79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -3917,25 +3191,19 @@
       <c r="F80">
         <v>4</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>169</v>
-      </c>
-      <c r="I80" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3943,42 +3211,33 @@
       <c r="F81">
         <v>3</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>154</v>
-      </c>
-      <c r="I81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="B82" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="C82" t="s">
+        <v>258</v>
+      </c>
+      <c r="D82" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>322</v>
       </c>
-      <c r="D82" t="s">
-        <v>467</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>386</v>
-      </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E83">
         <v>7</v>
@@ -3986,22 +3245,16 @@
       <c r="F83">
         <v>6</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E84">
         <v>10</v>
@@ -4009,51 +3262,36 @@
       <c r="F84">
         <v>6</v>
       </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
-        <v>4</v>
-      </c>
-      <c r="I84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E85" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="F85" t="s">
-        <v>209</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
-        <v>123</v>
-      </c>
-      <c r="J85" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C86" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E86">
         <v>1.5</v>
@@ -4061,28 +3299,19 @@
       <c r="F86">
         <v>1.5</v>
       </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>55</v>
-      </c>
-      <c r="I86" t="s">
-        <v>27</v>
-      </c>
-      <c r="J86" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -4090,25 +3319,16 @@
       <c r="F87">
         <v>3</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="I87" t="s">
-        <v>27</v>
-      </c>
-      <c r="J87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -4116,25 +3336,19 @@
       <c r="F88">
         <v>3</v>
       </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>114</v>
-      </c>
-      <c r="I88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -4142,25 +3356,19 @@
       <c r="F89">
         <v>2</v>
       </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="I89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -4168,28 +3376,19 @@
       <c r="F90">
         <v>1.5</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>64</v>
-      </c>
-      <c r="I90" t="s">
-        <v>27</v>
-      </c>
-      <c r="J90" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="B91" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="C91" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="E91">
         <v>1.25</v>
@@ -4197,28 +3396,19 @@
       <c r="F91">
         <v>1.25</v>
       </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>254</v>
-      </c>
-      <c r="I91" t="s">
-        <v>252</v>
-      </c>
-      <c r="J91" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -4226,28 +3416,19 @@
       <c r="F92">
         <v>1.5</v>
       </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>68</v>
-      </c>
-      <c r="I92" t="s">
-        <v>27</v>
-      </c>
-      <c r="J92" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="C93" t="s">
-        <v>424</v>
+        <v>359</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -4256,24 +3437,15 @@
         <v>1.5</v>
       </c>
       <c r="G93" t="s">
-        <v>144</v>
-      </c>
-      <c r="H93" t="s">
-        <v>282</v>
-      </c>
-      <c r="I93" t="s">
-        <v>274</v>
-      </c>
-      <c r="J93" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4281,22 +3453,16 @@
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="I94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -4304,25 +3470,19 @@
       <c r="F95">
         <v>3</v>
       </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="I95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D96" t="s">
-        <v>455</v>
+        <v>390</v>
       </c>
       <c r="E96">
         <v>0.5</v>
@@ -4330,25 +3490,19 @@
       <c r="F96">
         <v>0.5</v>
       </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="I96" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D97" t="s">
-        <v>454</v>
+        <v>389</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -4356,22 +3510,16 @@
       <c r="F97">
         <v>2</v>
       </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="I97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="C98" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="E98">
         <v>3</v>
@@ -4379,48 +3527,33 @@
       <c r="F98">
         <v>3</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>258</v>
-      </c>
-      <c r="I98" t="s">
-        <v>260</v>
-      </c>
-      <c r="J98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>472</v>
+        <v>407</v>
       </c>
       <c r="B99" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="C99" t="s">
-        <v>289</v>
-      </c>
-      <c r="G99" t="s">
-        <v>286</v>
-      </c>
-      <c r="I99" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="B100" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D100" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -4428,25 +3561,19 @@
       <c r="F100">
         <v>2.5</v>
       </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>143</v>
-      </c>
-      <c r="I100" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="B101" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -4454,28 +3581,19 @@
       <c r="F101">
         <v>3</v>
       </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>76</v>
-      </c>
-      <c r="I101" t="s">
-        <v>27</v>
-      </c>
-      <c r="J101" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E102">
         <v>4</v>
@@ -4483,22 +3601,16 @@
       <c r="F102">
         <v>3</v>
       </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="I102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C103" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E103">
         <v>12</v>
@@ -4506,22 +3618,16 @@
       <c r="F103">
         <v>7</v>
       </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
-        <v>82</v>
-      </c>
-      <c r="I103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>407</v>
+        <v>343</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -4529,28 +3635,19 @@
       <c r="F104">
         <v>5</v>
       </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>85</v>
-      </c>
-      <c r="I104" t="s">
-        <v>27</v>
-      </c>
-      <c r="J104" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E105">
         <v>20</v>
@@ -4558,28 +3655,22 @@
       <c r="F105">
         <v>8</v>
       </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>192</v>
-      </c>
-      <c r="I105" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
         <v>6</v>
       </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
       <c r="D106" t="s">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="E106">
         <v>20</v>
@@ -4587,22 +3678,16 @@
       <c r="F106">
         <v>8</v>
       </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="I106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>404</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C107" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E107">
         <v>43224</v>
@@ -4610,22 +3695,16 @@
       <c r="F107">
         <v>43224</v>
       </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="I107" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -4633,28 +3712,19 @@
       <c r="F108">
         <v>3</v>
       </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>265</v>
-      </c>
-      <c r="I108" t="s">
-        <v>267</v>
-      </c>
-      <c r="J108" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>471</v>
+        <v>406</v>
       </c>
       <c r="B109" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -4662,22 +3732,16 @@
       <c r="F109">
         <v>2</v>
       </c>
-      <c r="G109" t="s">
-        <v>144</v>
-      </c>
-      <c r="I109" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
         <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
       </c>
       <c r="E110">
         <v>3</v>
@@ -4685,25 +3749,19 @@
       <c r="F110">
         <v>2</v>
       </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
         <v>10</v>
       </c>
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
       <c r="D111" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="E111">
         <v>20</v>
@@ -4711,22 +3769,16 @@
       <c r="F111">
         <v>10</v>
       </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="I111" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="B112" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E112">
         <v>1.5</v>
@@ -4734,22 +3786,16 @@
       <c r="F112">
         <v>1.5</v>
       </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="I112" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>470</v>
+        <v>405</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C113" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E113">
         <v>0.5</v>
@@ -4757,28 +3803,22 @@
       <c r="F113">
         <v>0.5</v>
       </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113" t="s">
-        <v>107</v>
-      </c>
-      <c r="I113" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>460</v>
+        <v>395</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="C114" t="s">
-        <v>463</v>
+        <v>398</v>
       </c>
       <c r="D114" t="s">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="E114">
         <v>0.5</v>
@@ -4786,25 +3826,19 @@
       <c r="F114">
         <v>1</v>
       </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="I114" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C115" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="D115" t="s">
-        <v>461</v>
+        <v>396</v>
       </c>
       <c r="E115">
         <v>0.2</v>
@@ -4812,25 +3846,19 @@
       <c r="F115">
         <v>1</v>
       </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="I115" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>412</v>
+        <v>348</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C116" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D116" t="s">
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -4838,25 +3866,19 @@
       <c r="F116">
         <v>1.5</v>
       </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="I116" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
         <v>12</v>
       </c>
-      <c r="C117" t="s">
-        <v>13</v>
-      </c>
       <c r="D117" t="s">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="E117">
         <v>2.5</v>
@@ -4864,22 +3886,16 @@
       <c r="F117">
         <v>2.5</v>
       </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="I117" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B118" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C118" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -4887,28 +3903,19 @@
       <c r="F118">
         <v>2</v>
       </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118" t="s">
-        <v>93</v>
-      </c>
-      <c r="I118" t="s">
-        <v>27</v>
-      </c>
-      <c r="J118" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E119">
         <v>10</v>
@@ -4916,21 +3923,12 @@
       <c r="F119">
         <v>7</v>
       </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119" t="s">
-        <v>166</v>
-      </c>
-      <c r="I119" t="s">
-        <v>162</v>
-      </c>
-      <c r="J119" t="s">
-        <v>167</v>
+      <c r="G119" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J119">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G119">
     <sortCondition ref="B2:B119"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/map_data/voedselbos_species.xlsx
+++ b/map_data/voedselbos_species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\damien\bosmapper\map_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50D59B-DBFA-4937-9187-23E6001C2EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7006C0-03F9-4A94-AA19-8EF39378261B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="-615" windowWidth="26595" windowHeight="11985" xr2:uid="{41C94313-E097-42C3-9518-1AB02B51329D}"/>
   </bookViews>
@@ -1320,7 +1320,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1665,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D093D-8C82-4BD1-88A3-14D709597181}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,7 +2954,7 @@
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="E68">
         <v>10</v>

--- a/map_data/voedselbos_species.xlsx
+++ b/map_data/voedselbos_species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\damien\bosmapper\map_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7006C0-03F9-4A94-AA19-8EF39378261B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4833DC01-7481-4394-829A-E75B8D154C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="-615" windowWidth="26595" windowHeight="11985" xr2:uid="{41C94313-E097-42C3-9518-1AB02B51329D}"/>
   </bookViews>
@@ -31,23 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="425">
   <si>
     <t>Hovenia dulcis</t>
   </si>
   <si>
-    <t>Japanse krentenboom of rozijnenboom</t>
-  </si>
-  <si>
     <t>Pyrus communis</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t>Peer, hoogstam</t>
-  </si>
-  <si>
     <t>Sorbus torminalis</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>Toona sinensis</t>
   </si>
   <si>
-    <t>Franseuiensoepboom, geknot</t>
-  </si>
-  <si>
     <t>Torreya nucifera</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>Grow low en normaal</t>
   </si>
   <si>
-    <t>Fluweelboom, klein</t>
-  </si>
-  <si>
     <t>Rhus glabra</t>
   </si>
   <si>
@@ -273,9 +261,6 @@
     <t>Peper boompje</t>
   </si>
   <si>
-    <t>Mahonia aquilegium</t>
-  </si>
-  <si>
     <t>Smaragd</t>
   </si>
   <si>
@@ -321,9 +306,6 @@
     <t>Gaultheria shallon</t>
   </si>
   <si>
-    <t>Salal / Shallon</t>
-  </si>
-  <si>
     <t>Rhus typhina</t>
   </si>
   <si>
@@ -333,9 +315,6 @@
     <t>Decaisnea fargesii</t>
   </si>
   <si>
-    <t>Blauwe boon/Augurkenstruik</t>
-  </si>
-  <si>
     <t>Diospyros lotus</t>
   </si>
   <si>
@@ -447,9 +426,6 @@
     <t>Eriobotrya japonica </t>
   </si>
   <si>
-    <t>Loquat of Japanse Wolmispel</t>
-  </si>
-  <si>
     <t>Pseudocydonia sinensis </t>
   </si>
   <si>
@@ -727,9 +703,6 @@
   </si>
   <si>
     <t>Tilia cordata </t>
-  </si>
-  <si>
-    <t>Winterlinde, geknot</t>
   </si>
   <si>
     <t>Alnus incana</t>
@@ -1111,9 +1084,6 @@
     <t>Vijg</t>
   </si>
   <si>
-    <t>Bottelroos / rimpelroos</t>
-  </si>
-  <si>
     <t>A. melanocarpa</t>
   </si>
   <si>
@@ -1304,6 +1274,39 @@
   </si>
   <si>
     <t>races</t>
+  </si>
+  <si>
+    <t>Mahonia aquifolium</t>
+  </si>
+  <si>
+    <t>Japanse Wolmispel (Loquat)</t>
+  </si>
+  <si>
+    <t>Augurkenstruik (Blauwe boon)</t>
+  </si>
+  <si>
+    <t>Peer (hoogstam)</t>
+  </si>
+  <si>
+    <t>Bottelroos (rimpelroos)</t>
+  </si>
+  <si>
+    <t>Franseuiensoepboom (geknot)</t>
+  </si>
+  <si>
+    <t>Winterlinde (geknot)</t>
+  </si>
+  <si>
+    <t>Fluweelboom (klein)</t>
+  </si>
+  <si>
+    <t>Japanse krentenboom (rozijnenboom)</t>
+  </si>
+  <si>
+    <t>Salal</t>
+  </si>
+  <si>
+    <t>Shallon (appeltjesblad)</t>
   </si>
 </sst>
 </file>
@@ -1664,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D093D-8C82-4BD1-88A3-14D709597181}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,50 +1683,50 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D3" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1732,18 +1735,18 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1752,21 +1755,21 @@
         <v>3.5</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1775,18 +1778,18 @@
         <v>3.5</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1797,13 +1800,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -1814,16 +1817,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -1832,18 +1835,18 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E9">
         <v>0.25</v>
@@ -1854,27 +1857,27 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1883,18 +1886,18 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E12">
         <v>2.5</v>
@@ -1905,13 +1908,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E13">
         <v>2.5</v>
@@ -1920,18 +1923,18 @@
         <v>2.5</v>
       </c>
       <c r="G13" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1940,18 +1943,18 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -1962,13 +1965,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E16">
         <v>12</v>
@@ -1979,24 +1982,24 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D17" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -2007,13 +2010,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E19">
         <v>30</v>
@@ -2022,18 +2025,18 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -2042,18 +2045,18 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -2064,13 +2067,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -2079,18 +2082,18 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -2101,16 +2104,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D24" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2119,21 +2122,21 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2142,21 +2145,21 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C26" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D26" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E26">
         <v>1.5</v>
@@ -2165,21 +2168,21 @@
         <v>1.5</v>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2188,21 +2191,21 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -2211,18 +2214,18 @@
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -2231,21 +2234,21 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D30" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -2254,21 +2257,21 @@
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -2279,16 +2282,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2299,16 +2302,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -2319,16 +2322,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -2337,21 +2340,21 @@
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -2362,16 +2365,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E36">
         <v>9</v>
@@ -2380,21 +2383,21 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -2403,21 +2406,21 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -2428,16 +2431,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -2448,16 +2451,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -2468,13 +2471,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -2483,18 +2486,18 @@
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2505,13 +2508,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2522,13 +2525,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>416</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -2539,21 +2542,21 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -2564,13 +2567,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E47">
         <v>15</v>
@@ -2579,18 +2582,18 @@
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E48">
         <v>15</v>
@@ -2599,18 +2602,18 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -2621,13 +2624,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -2636,21 +2639,21 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2659,21 +2662,21 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -2681,13 +2684,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>415</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -2698,13 +2701,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -2713,18 +2716,18 @@
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -2733,18 +2736,18 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E56">
         <v>2.5</v>
@@ -2755,13 +2758,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E57">
         <v>2.5</v>
@@ -2770,29 +2773,32 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>424</v>
+      </c>
+      <c r="D59" t="s">
+        <v>423</v>
       </c>
       <c r="E59">
         <v>1.5</v>
@@ -2803,13 +2809,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -2820,16 +2826,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D61" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -2840,13 +2846,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E62">
         <v>1.5</v>
@@ -2857,13 +2863,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -2874,13 +2880,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E64">
         <v>0.5</v>
@@ -2891,13 +2897,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C65" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -2906,18 +2912,18 @@
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>422</v>
       </c>
       <c r="E66">
         <v>10</v>
@@ -2928,13 +2934,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E67">
         <v>2.5</v>
@@ -2943,18 +2949,18 @@
         <v>2.5</v>
       </c>
       <c r="G67" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="C68" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -2963,18 +2969,18 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B69" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -2985,13 +2991,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -3000,18 +3006,18 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E71">
         <v>15</v>
@@ -3020,18 +3026,18 @@
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E72">
         <v>8</v>
@@ -3040,18 +3046,18 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E73">
         <v>15</v>
@@ -3060,32 +3066,32 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C74" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D74" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C75" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -3096,13 +3102,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E76">
         <v>20</v>
@@ -3111,21 +3117,21 @@
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D77" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E77">
         <v>20</v>
@@ -3134,35 +3140,35 @@
         <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E79">
         <v>6</v>
@@ -3171,18 +3177,18 @@
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -3191,18 +3197,18 @@
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3211,32 +3217,32 @@
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B82" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C82" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D82" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E83">
         <v>7</v>
@@ -3247,13 +3253,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>417</v>
       </c>
       <c r="E84">
         <v>10</v>
@@ -3262,35 +3268,35 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F85" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>421</v>
       </c>
       <c r="E86">
         <v>1.5</v>
@@ -3299,18 +3305,18 @@
         <v>1.5</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -3321,13 +3327,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -3336,18 +3342,18 @@
         <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C89" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -3358,16 +3364,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D90" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -3376,18 +3382,18 @@
         <v>1.5</v>
       </c>
       <c r="G90" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E91">
         <v>1.25</v>
@@ -3396,18 +3402,18 @@
         <v>1.25</v>
       </c>
       <c r="G91" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -3416,18 +3422,18 @@
         <v>1.5</v>
       </c>
       <c r="G92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B93" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -3436,15 +3442,15 @@
         <v>1.5</v>
       </c>
       <c r="G93" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3455,13 +3461,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -3472,16 +3478,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D96" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E96">
         <v>0.5</v>
@@ -3492,16 +3498,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C97" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D97" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -3512,13 +3518,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B98" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E98">
         <v>3</v>
@@ -3527,32 +3533,32 @@
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D100" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -3561,18 +3567,18 @@
         <v>2.5</v>
       </c>
       <c r="G100" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -3581,18 +3587,18 @@
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C102" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E102">
         <v>4</v>
@@ -3603,13 +3609,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B103" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C103" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E103">
         <v>12</v>
@@ -3618,15 +3624,15 @@
         <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3635,18 +3641,18 @@
         <v>5</v>
       </c>
       <c r="G104" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E105">
         <v>20</v>
@@ -3655,21 +3661,21 @@
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E106">
         <v>20</v>
@@ -3680,13 +3686,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E107">
         <v>43224</v>
@@ -3697,13 +3703,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -3712,18 +3718,18 @@
         <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B109" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C109" t="s">
-        <v>232</v>
+        <v>420</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -3734,13 +3740,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>419</v>
       </c>
       <c r="E110">
         <v>3</v>
@@ -3751,16 +3757,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E111">
         <v>20</v>
@@ -3771,13 +3777,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B112" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C112" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E112">
         <v>1.5</v>
@@ -3788,13 +3794,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B113" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C113" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E113">
         <v>0.5</v>
@@ -3803,21 +3809,21 @@
         <v>0.5</v>
       </c>
       <c r="G113" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C114" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D114" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E114">
         <v>0.5</v>
@@ -3828,16 +3834,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D115" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E115">
         <v>0.2</v>
@@ -3848,16 +3854,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C116" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D116" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -3868,16 +3874,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E117">
         <v>2.5</v>
@@ -3888,13 +3894,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C118" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -3903,18 +3909,18 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C119" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E119">
         <v>10</v>
@@ -3923,7 +3929,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/map_data/voedselbos_species.xlsx
+++ b/map_data/voedselbos_species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\damien\bosmapper\map_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4833DC01-7481-4394-829A-E75B8D154C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09033A7-9EB8-437E-BA0A-DF9D3AE1CB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="-615" windowWidth="26595" windowHeight="11985" xr2:uid="{41C94313-E097-42C3-9518-1AB02B51329D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="423">
   <si>
     <t>Hovenia dulcis</t>
   </si>
@@ -393,9 +393,6 @@
     <t>Olijfwilg</t>
   </si>
   <si>
-    <t>5 </t>
-  </si>
-  <si>
     <t>Prunus avium, halfstam</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
   </si>
   <si>
     <t>Steeneik</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Crataegus calpodendron</t>
@@ -1009,9 +1003,6 @@
     <t>R. typhina</t>
   </si>
   <si>
-    <t>R.phoenicolasius</t>
-  </si>
-  <si>
     <t>S. argentea</t>
   </si>
   <si>
@@ -1307,6 +1298,9 @@
   </si>
   <si>
     <t>Shallon (appeltjesblad)</t>
+  </si>
+  <si>
+    <t>R. phoenicolasius</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1662,7 @@
   <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,50 +1677,50 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1740,7 +1734,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1760,7 +1754,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1769,7 +1763,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1783,7 +1777,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
@@ -1800,13 +1794,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -1817,16 +1811,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -1835,18 +1829,18 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E9">
         <v>0.25</v>
@@ -1857,16 +1851,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1891,13 +1885,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12">
         <v>2.5</v>
@@ -1908,13 +1902,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13">
         <v>2.5</v>
@@ -1923,18 +1917,18 @@
         <v>2.5</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
         <v>181</v>
-      </c>
-      <c r="C14" t="s">
-        <v>183</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1943,18 +1937,18 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -1965,13 +1959,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E16">
         <v>12</v>
@@ -1982,24 +1976,24 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -2010,13 +2004,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19">
         <v>30</v>
@@ -2025,12 +2019,12 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -2050,10 +2044,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
         <v>77</v>
@@ -2067,13 +2061,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
         <v>178</v>
-      </c>
-      <c r="C22" t="s">
-        <v>180</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -2082,12 +2076,12 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -2104,16 +2098,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D24" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2122,12 +2116,12 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s">
         <v>82</v>
@@ -2136,7 +2130,7 @@
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2150,16 +2144,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E26">
         <v>1.5</v>
@@ -2168,21 +2162,21 @@
         <v>1.5</v>
       </c>
       <c r="G26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" t="s">
         <v>186</v>
       </c>
-      <c r="C27" t="s">
-        <v>188</v>
-      </c>
       <c r="D27" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2191,12 +2185,12 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -2205,7 +2199,7 @@
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -2219,13 +2213,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -2234,21 +2228,21 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" t="s">
         <v>241</v>
       </c>
-      <c r="C30" t="s">
-        <v>243</v>
-      </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -2257,12 +2251,12 @@
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
         <v>106</v>
@@ -2271,7 +2265,7 @@
         <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -2282,7 +2276,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s">
         <v>104</v>
@@ -2291,7 +2285,7 @@
         <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2302,16 +2296,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
         <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -2322,7 +2316,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
         <v>96</v>
@@ -2331,7 +2325,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -2345,7 +2339,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s">
         <v>103</v>
@@ -2354,7 +2348,7 @@
         <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -2365,7 +2359,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s">
         <v>99</v>
@@ -2374,7 +2368,7 @@
         <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E36">
         <v>9</v>
@@ -2388,16 +2382,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
         <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -2406,12 +2400,12 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s">
         <v>101</v>
@@ -2420,7 +2414,7 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -2431,7 +2425,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s">
         <v>102</v>
@@ -2440,7 +2434,7 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -2451,7 +2445,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
         <v>105</v>
@@ -2460,7 +2454,7 @@
         <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -2471,13 +2465,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -2486,12 +2480,12 @@
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -2508,7 +2502,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2525,13 +2519,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s">
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -2542,7 +2536,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s">
         <v>115</v>
@@ -2550,7 +2544,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
         <v>94</v>
@@ -2567,13 +2561,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E47">
         <v>15</v>
@@ -2582,18 +2576,18 @@
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E48">
         <v>15</v>
@@ -2602,12 +2596,12 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B49" t="s">
         <v>113</v>
@@ -2624,13 +2618,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" t="s">
         <v>232</v>
-      </c>
-      <c r="C50" t="s">
-        <v>234</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -2639,12 +2633,12 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B51" t="s">
         <v>107</v>
@@ -2653,7 +2647,7 @@
         <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2667,7 +2661,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s">
         <v>118</v>
@@ -2675,8 +2669,8 @@
       <c r="C52" t="s">
         <v>119</v>
       </c>
-      <c r="E52" t="s">
-        <v>120</v>
+      <c r="E52">
+        <v>5</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -2684,13 +2678,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -2701,13 +2695,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -2716,18 +2710,18 @@
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
         <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -2741,13 +2735,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E56">
         <v>2.5</v>
@@ -2758,13 +2752,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" t="s">
         <v>193</v>
-      </c>
-      <c r="C57" t="s">
-        <v>195</v>
       </c>
       <c r="E57">
         <v>2.5</v>
@@ -2773,32 +2767,32 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B59" t="s">
         <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D59" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E59">
         <v>1.5</v>
@@ -2809,13 +2803,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -2826,16 +2820,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D61" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -2846,7 +2840,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B62" t="s">
         <v>78</v>
@@ -2863,7 +2857,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
@@ -2897,13 +2891,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" t="s">
         <v>218</v>
-      </c>
-      <c r="C65" t="s">
-        <v>220</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -2912,18 +2906,18 @@
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E66">
         <v>10</v>
@@ -2934,13 +2928,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
         <v>198</v>
-      </c>
-      <c r="C67" t="s">
-        <v>200</v>
       </c>
       <c r="E67">
         <v>2.5</v>
@@ -2949,18 +2943,18 @@
         <v>2.5</v>
       </c>
       <c r="G67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -2974,13 +2968,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -2991,7 +2985,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B70" t="s">
         <v>110</v>
@@ -3011,13 +3005,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E71">
         <v>15</v>
@@ -3026,18 +3020,18 @@
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72">
         <v>8</v>
@@ -3046,18 +3040,18 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E73">
         <v>15</v>
@@ -3066,32 +3060,32 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>363</v>
+      </c>
+      <c r="B74" t="s">
         <v>366</v>
       </c>
-      <c r="B74" t="s">
-        <v>369</v>
-      </c>
       <c r="C74" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D74" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -3102,7 +3096,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B76" t="s">
         <v>40</v>
@@ -3122,16 +3116,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" t="s">
         <v>171</v>
       </c>
-      <c r="C77" t="s">
-        <v>173</v>
-      </c>
       <c r="D77" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E77">
         <v>20</v>
@@ -3140,35 +3134,35 @@
         <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E79">
         <v>6</v>
@@ -3177,18 +3171,18 @@
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -3197,18 +3191,18 @@
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3217,32 +3211,32 @@
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D82" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" t="s">
         <v>131</v>
-      </c>
-      <c r="C83" t="s">
-        <v>132</v>
       </c>
       <c r="E83">
         <v>7</v>
@@ -3253,13 +3247,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E84">
         <v>10</v>
@@ -3273,30 +3267,24 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" t="s">
         <v>167</v>
-      </c>
-      <c r="C85" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" t="s">
-        <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s">
         <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E86">
         <v>1.5</v>
@@ -3310,7 +3298,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B87" t="s">
         <v>45</v>
@@ -3327,7 +3315,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B88" t="s">
         <v>91</v>
@@ -3347,7 +3335,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B89" t="s">
         <v>47</v>
@@ -3364,7 +3352,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B90" t="s">
         <v>49</v>
@@ -3373,7 +3361,7 @@
         <v>51</v>
       </c>
       <c r="D90" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -3387,13 +3375,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" t="s">
         <v>201</v>
-      </c>
-      <c r="C91" t="s">
-        <v>203</v>
       </c>
       <c r="E91">
         <v>1.25</v>
@@ -3402,12 +3390,12 @@
         <v>1.25</v>
       </c>
       <c r="G91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B92" t="s">
         <v>52</v>
@@ -3427,13 +3415,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C93" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -3442,12 +3430,12 @@
         <v>1.5</v>
       </c>
       <c r="G93" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3461,7 +3449,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B95" t="s">
         <v>55</v>
@@ -3478,16 +3466,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D96" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E96">
         <v>0.5</v>
@@ -3498,7 +3486,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>325</v>
+        <v>422</v>
       </c>
       <c r="B97" t="s">
         <v>57</v>
@@ -3507,7 +3495,7 @@
         <v>58</v>
       </c>
       <c r="D97" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -3518,13 +3506,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
-      </c>
-      <c r="C98" t="s">
-        <v>206</v>
       </c>
       <c r="E98">
         <v>3</v>
@@ -3533,23 +3521,23 @@
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C99" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s">
         <v>116</v>
@@ -3558,7 +3546,7 @@
         <v>61</v>
       </c>
       <c r="D100" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -3572,7 +3560,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B101" t="s">
         <v>59</v>
@@ -3592,7 +3580,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B102" t="s">
         <v>62</v>
@@ -3609,7 +3597,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
@@ -3629,7 +3617,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B104" t="s">
         <v>67</v>
@@ -3646,13 +3634,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E105">
         <v>20</v>
@@ -3661,12 +3649,12 @@
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -3675,7 +3663,7 @@
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E106">
         <v>20</v>
@@ -3686,7 +3674,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B107" t="s">
         <v>69</v>
@@ -3703,13 +3691,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B108" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" t="s">
         <v>209</v>
-      </c>
-      <c r="C108" t="s">
-        <v>211</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -3718,18 +3706,18 @@
         <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B109" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C109" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -3740,13 +3728,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E110">
         <v>3</v>
@@ -3757,7 +3745,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3766,7 +3754,7 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E111">
         <v>20</v>
@@ -3777,7 +3765,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B112" t="s">
         <v>80</v>
@@ -3794,7 +3782,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B113" t="s">
         <v>85</v>
@@ -3814,16 +3802,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>382</v>
+      </c>
+      <c r="B114" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" t="s">
         <v>385</v>
       </c>
-      <c r="B114" t="s">
-        <v>174</v>
-      </c>
-      <c r="C114" t="s">
-        <v>388</v>
-      </c>
       <c r="D114" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E114">
         <v>0.5</v>
@@ -3834,16 +3822,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>381</v>
+      </c>
+      <c r="B115" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" t="s">
         <v>384</v>
       </c>
-      <c r="B115" t="s">
-        <v>175</v>
-      </c>
-      <c r="C115" t="s">
-        <v>387</v>
-      </c>
       <c r="D115" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E115">
         <v>0.2</v>
@@ -3854,7 +3842,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B116" t="s">
         <v>71</v>
@@ -3863,7 +3851,7 @@
         <v>72</v>
       </c>
       <c r="D116" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -3874,7 +3862,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -3883,7 +3871,7 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E117">
         <v>2.5</v>
@@ -3914,10 +3902,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C119" t="s">
         <v>77</v>
@@ -3929,7 +3917,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
